--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A90"/>
+  <dimension ref="A1:A91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -821,6 +821,11 @@
         <v>83</v>
       </c>
     </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>283</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,467 +363,472 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A91"/>
+  <dimension ref="A1:A92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>529</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>752</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>704</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>876</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>344</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>567</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>438</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>309</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>714</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>198</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>213</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>337</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1288</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>986</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>226</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>234</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>654</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>652</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>538</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>700</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>701</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>450</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>222</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1373</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>297</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>171</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>176</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>620</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>207</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>130</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>990</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>460</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>895</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>295</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>355</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>496</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>503</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>739</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>239</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>870</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>380</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>710</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>316</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>283</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>509</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,472 +363,477 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A92"/>
+  <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>529</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>752</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>704</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>876</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>344</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>567</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>438</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>309</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>714</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>198</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>213</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>337</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1288</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>986</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>226</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>234</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>654</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>652</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>538</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>700</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>701</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>450</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>222</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1373</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>297</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>171</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>176</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>620</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>207</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>130</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>990</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>460</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>895</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>295</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>355</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>496</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>503</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>739</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>239</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>870</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>380</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>710</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>316</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>283</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>509</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>931</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,477 +363,482 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A93"/>
+  <dimension ref="A1:A94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>529</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>752</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>704</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>876</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>344</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>567</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>438</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>309</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>714</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>198</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>213</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>337</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1288</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>986</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>226</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>234</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>654</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>652</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>538</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>700</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>701</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>450</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>222</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1373</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>297</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>171</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>176</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>620</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>207</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>130</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>990</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>460</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>895</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>295</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>355</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>496</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>503</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>739</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>239</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>870</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>380</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>710</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>316</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>283</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>509</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>931</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>494</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A94"/>
+  <dimension ref="A1:A96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -841,6 +841,16 @@
         <v>494</v>
       </c>
     </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,492 +363,497 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A96"/>
+  <dimension ref="A1:A97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>529</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>752</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>704</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>876</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>344</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>567</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>438</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>309</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>714</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>198</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>213</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>337</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1288</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>986</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>226</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>234</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>654</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>652</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>538</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>700</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>701</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>450</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>222</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1373</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>297</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>171</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>176</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>620</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>207</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>130</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>990</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>460</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>895</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>295</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>355</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>496</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>503</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>739</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>239</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>870</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>380</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>710</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>316</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>283</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>509</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>931</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>494</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>72</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>300</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A97"/>
+  <dimension ref="A1:A104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -856,6 +856,41 @@
         <v>354</v>
       </c>
     </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>518</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A104"/>
+  <dimension ref="A1:A108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -891,6 +891,26 @@
         <v>518</v>
       </c>
     </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A108"/>
+  <dimension ref="A1:A111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -911,6 +911,21 @@
         <v>64</v>
       </c>
     </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A111"/>
+  <dimension ref="A1:A112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -926,6 +926,11 @@
         <v>134</v>
       </c>
     </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A112"/>
+  <dimension ref="A1:A115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -931,6 +931,21 @@
         <v>174</v>
       </c>
     </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A115"/>
+  <dimension ref="A1:A117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="E115" sqref="E115"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -946,6 +946,16 @@
         <v>99</v>
       </c>
     </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A117"/>
+  <dimension ref="A1:A118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -956,6 +956,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>869</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A118"/>
+  <dimension ref="A1:A120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -961,6 +961,16 @@
         <v>869</v>
       </c>
     </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A120"/>
+  <dimension ref="A1:A121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -971,6 +971,11 @@
         <v>13</v>
       </c>
     </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>575</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A121"/>
+  <dimension ref="A1:A122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -976,6 +976,11 @@
         <v>575</v>
       </c>
     </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>237</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A122"/>
+  <dimension ref="A1:A123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -981,6 +981,11 @@
         <v>237</v>
       </c>
     </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A123"/>
+  <dimension ref="A1:A125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -986,6 +986,16 @@
         <v>17</v>
       </c>
     </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A125"/>
+  <dimension ref="A1:A127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -996,6 +996,16 @@
         <v>67</v>
       </c>
     </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>1218</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A127"/>
+  <dimension ref="A1:A128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1006,6 +1006,11 @@
         <v>1218</v>
       </c>
     </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>299</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A128"/>
+  <dimension ref="A1:A129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1011,6 +1011,11 @@
         <v>299</v>
       </c>
     </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A129"/>
+  <dimension ref="A1:A132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1016,6 +1016,21 @@
         <v>39</v>
       </c>
     </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>268</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A132"/>
+  <dimension ref="A1:A134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1031,6 +1031,16 @@
         <v>268</v>
       </c>
     </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>375</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A134"/>
+  <dimension ref="A1:A136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1041,6 +1041,16 @@
         <v>375</v>
       </c>
     </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>319</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A136"/>
+  <dimension ref="A1:A137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142"/>
+      <selection activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1051,6 +1051,11 @@
         <v>319</v>
       </c>
     </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>318</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A137"/>
+  <dimension ref="A1:A139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137"/>
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1056,6 +1056,16 @@
         <v>318</v>
       </c>
     </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>392</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A139"/>
+  <dimension ref="A1:A141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1066,6 +1066,16 @@
         <v>392</v>
       </c>
     </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>397</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A141"/>
+  <dimension ref="A1:A144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="C135" sqref="C135"/>
+      <selection activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1076,6 +1076,21 @@
         <v>397</v>
       </c>
     </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>384</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A144"/>
+  <dimension ref="A1:A147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1091,6 +1091,21 @@
         <v>384</v>
       </c>
     </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>405</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A147"/>
+  <dimension ref="A1:A149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1093,17 +1093,27 @@
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>423</v>
+        <v>859</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>400</v>
+        <v>423</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
         <v>405</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>1446</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A149"/>
+  <dimension ref="A1:A150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="B154" sqref="B154"/>
+      <selection activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1116,6 +1116,11 @@
         <v>1446</v>
       </c>
     </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>506</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A150"/>
+  <dimension ref="A1:A151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="A151" sqref="A151"/>
+      <selection activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1121,6 +1121,11 @@
         <v>506</v>
       </c>
     </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>1005</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A151"/>
+  <dimension ref="A1:A152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152"/>
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1126,6 +1126,11 @@
         <v>1005</v>
       </c>
     </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>383</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A152"/>
+  <dimension ref="A1:A153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1131,6 +1131,11 @@
         <v>383</v>
       </c>
     </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>1816</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A153"/>
+  <dimension ref="A1:A154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154"/>
+      <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1136,6 +1136,11 @@
         <v>1816</v>
       </c>
     </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>1034</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A154"/>
+  <dimension ref="A1:A157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155"/>
+      <selection activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1141,6 +1141,21 @@
         <v>1034</v>
       </c>
     </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>475</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -363,9 +363,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A157"/>
+  <dimension ref="A1:A158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
       <selection activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
@@ -1156,6 +1156,11 @@
         <v>475</v>
       </c>
     </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/00_already.xlsx
+++ b/leetcode/00_already.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF5849F-79CE-499B-A823-60A2151027D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,803 +363,818 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A158"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>529</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>752</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>704</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>876</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>344</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>567</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>438</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>309</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>714</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>198</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>213</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>337</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1288</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>986</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>226</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>234</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>654</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>652</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>538</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>700</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>701</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>450</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>222</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1373</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>297</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>171</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>176</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>620</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>207</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>130</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>990</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>460</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>895</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>295</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>355</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>496</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>503</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>739</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>239</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>870</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>380</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>710</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>316</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>283</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>509</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>931</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>494</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>72</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>300</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>354</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>53</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1143</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>583</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>712</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>516</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>416</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>518</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>435</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>452</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1024</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>64</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>45</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>134</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>174</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>638</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>99</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>869</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>575</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>237</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>367</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>67</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>598</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1218</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>299</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>495</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>488</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>268</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>520</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>375</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>677</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>319</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>318</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>563</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>392</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>594</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>397</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>559</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>391</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>384</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>859</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>423</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>400</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>405</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1446</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>506</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1005</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>383</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1816</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1034</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>686</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1154</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>475</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>160</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
